--- a/BeeSync _ Streamlit_Tracker.xlsx
+++ b/BeeSync _ Streamlit_Tracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28318"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B826012-DB28-4DDA-BD98-F2097F769423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DDB5DE1-726E-4DD1-A12A-71C4CE486B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="53">
   <si>
     <t>#</t>
   </si>
@@ -75,10 +75,7 @@
     <t>Alation</t>
   </si>
   <si>
-    <t>[Notes]</t>
-  </si>
-  <si>
-    <t>[Yes/No]</t>
+    <t>Q4</t>
   </si>
   <si>
     <t>[Owner Name]</t>
@@ -659,8 +656,8 @@
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+      <pane ySplit="1" topLeftCell="E27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -728,79 +725,67 @@
       <c r="B2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="5"/>
+      <c r="C2" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="D2" s="6"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="11"/>
-      <c r="H2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M2" s="8"/>
     </row>
-    <row r="3" spans="1:13" ht="30.75">
+    <row r="3" spans="1:13">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="D3" s="6">
         <v>45579</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="11"/>
-      <c r="H3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M3" s="7"/>
     </row>
-    <row r="4" spans="1:13" ht="30.75">
+    <row r="4" spans="1:13">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="5"/>
+        <v>17</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="D4" s="6"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="11"/>
-      <c r="H4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>19</v>
-      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M4" s="7"/>
     </row>
@@ -809,9 +794,11 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="D5" s="6"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -823,14 +810,16 @@
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
     </row>
-    <row r="6" spans="1:13" ht="45.75">
+    <row r="6" spans="1:13" ht="30.75">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="D6" s="6"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -842,14 +831,16 @@
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
     </row>
-    <row r="7" spans="1:13" ht="30.75">
+    <row r="7" spans="1:13">
       <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="D7" s="6"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -861,14 +852,16 @@
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
     </row>
-    <row r="8" spans="1:13" ht="30.75">
+    <row r="8" spans="1:13">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="5"/>
+        <v>22</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="D8" s="6"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -880,14 +873,16 @@
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
     </row>
-    <row r="9" spans="1:13" ht="76.5">
+    <row r="9" spans="1:13" ht="45.75">
       <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="D9" s="6"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -899,14 +894,16 @@
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
     </row>
-    <row r="10" spans="1:13" ht="60.75">
+    <row r="10" spans="1:13" ht="30.75">
       <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="D10" s="6"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -918,14 +915,16 @@
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
     </row>
-    <row r="11" spans="1:13" ht="91.5">
+    <row r="11" spans="1:13" ht="45.75">
       <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="5"/>
+        <v>25</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="D11" s="6"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -937,14 +936,16 @@
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
     </row>
-    <row r="12" spans="1:13" ht="30.75">
+    <row r="12" spans="1:13">
       <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="D12" s="6"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -956,14 +957,16 @@
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
     </row>
-    <row r="13" spans="1:13" ht="30.75">
+    <row r="13" spans="1:13">
       <c r="A13" s="5">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="5"/>
+        <v>27</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="D13" s="6"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -975,14 +978,16 @@
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
     </row>
-    <row r="14" spans="1:13" ht="30.75">
+    <row r="14" spans="1:13">
       <c r="A14" s="4">
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="D14" s="6"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -994,14 +999,16 @@
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
     </row>
-    <row r="15" spans="1:13" ht="45.75">
+    <row r="15" spans="1:13" ht="30.75">
       <c r="A15" s="5">
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="D15" s="6"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -1018,14 +1025,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="D16" s="6">
         <v>45590</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="11">
@@ -1035,29 +1044,31 @@
         <v>7</v>
       </c>
       <c r="I16" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="M16" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="91.5">
+    </row>
+    <row r="17" spans="1:13" ht="45.75">
       <c r="A17" s="5">
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="5"/>
+        <v>37</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="D17" s="6"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -1069,14 +1080,16 @@
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
     </row>
-    <row r="18" spans="1:13" ht="30.75">
+    <row r="18" spans="1:13">
       <c r="A18" s="4">
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="5"/>
+        <v>38</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="D18" s="6"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -1088,14 +1101,16 @@
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
     </row>
-    <row r="19" spans="1:13" ht="60.75">
+    <row r="19" spans="1:13" ht="45.75">
       <c r="A19" s="5">
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="5"/>
+        <v>39</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="D19" s="6"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -1112,9 +1127,11 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="5"/>
+        <v>40</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="D20" s="6"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -1126,14 +1143,16 @@
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
     </row>
-    <row r="21" spans="1:13" ht="76.5">
+    <row r="21" spans="1:13" ht="60.75">
       <c r="A21" s="5">
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="5"/>
+        <v>41</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="D21" s="6"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -1145,14 +1164,16 @@
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
     </row>
-    <row r="22" spans="1:13" ht="60.75">
+    <row r="22" spans="1:13" ht="45.75">
       <c r="A22" s="4">
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="5"/>
+        <v>42</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="D22" s="6"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -1164,14 +1185,16 @@
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
     </row>
-    <row r="23" spans="1:13" ht="30.75">
+    <row r="23" spans="1:13">
       <c r="A23" s="5">
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="5"/>
+        <v>43</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="D23" s="6"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -1183,14 +1206,16 @@
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
     </row>
-    <row r="24" spans="1:13" ht="60.75">
+    <row r="24" spans="1:13" ht="30.75">
       <c r="A24" s="4">
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="5"/>
+        <v>44</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="D24" s="6"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -1202,14 +1227,16 @@
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
     </row>
-    <row r="25" spans="1:13" ht="30.75">
+    <row r="25" spans="1:13">
       <c r="A25" s="5">
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="5"/>
+        <v>45</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="D25" s="6"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -1221,14 +1248,16 @@
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
     </row>
-    <row r="26" spans="1:13" ht="60.75">
+    <row r="26" spans="1:13" ht="30.75">
       <c r="A26" s="4">
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="5"/>
+        <v>46</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="D26" s="6"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -1240,33 +1269,53 @@
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
     </row>
-    <row r="27" spans="1:13" ht="30.75">
+    <row r="27" spans="1:13">
       <c r="A27" s="5">
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="5"/>
+        <v>47</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="6">
+        <v>45531</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="F27" s="5"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
+      <c r="G27" s="11">
+        <v>45545</v>
+      </c>
+      <c r="H27" s="7">
+        <v>4</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-    </row>
-    <row r="28" spans="1:13" ht="30.75">
+      <c r="L27" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M27" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="4">
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="5"/>
+        <v>48</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="D28" s="6"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -1278,14 +1327,16 @@
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
     </row>
-    <row r="29" spans="1:13" ht="121.5">
+    <row r="29" spans="1:13" ht="60.75">
       <c r="A29" s="5">
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="5"/>
+        <v>49</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="D29" s="6"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
@@ -1297,33 +1348,53 @@
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
     </row>
-    <row r="30" spans="1:13" ht="76.5">
+    <row r="30" spans="1:13" ht="45.75">
       <c r="A30" s="4">
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="5"/>
+        <v>50</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="6">
+        <v>45589</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="F30" s="5"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
+      <c r="G30" s="11">
+        <v>45613</v>
+      </c>
+      <c r="H30" s="7">
+        <v>6</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-    </row>
-    <row r="31" spans="1:13" ht="76.5">
+      <c r="L30" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M30" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="45.75">
       <c r="A31" s="5">
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" s="5"/>
+        <v>51</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="D31" s="6"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
@@ -1340,9 +1411,11 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C32" s="5"/>
+        <v>52</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="D32" s="9"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
@@ -1357,6 +1430,8 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I16" r:id="rId1" xr:uid="{DF608227-35BC-42E2-A3CB-99913B84B9E2}"/>
+    <hyperlink ref="I27" r:id="rId2" xr:uid="{C71AB20D-9295-4856-A3A3-8BCAADC10CC5}"/>
+    <hyperlink ref="I30" r:id="rId3" xr:uid="{5EDC5928-D4BC-40B2-AC54-90FB36AB6FD7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
